--- a/benchmarks/HermesVFD/hdf5-iotest_Hermes_VFD.xlsx
+++ b/benchmarks/HermesVFD/hdf5-iotest_Hermes_VFD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmu/Research/Hermes/hermes_vfd_doc/benchmarks/HermesVFD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897304A-72ED-A74C-A001-9B40157FEB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C434DA0-C9DA-A549-B192-C1EBA6E9BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30660" windowHeight="22620" xr2:uid="{BAEABECE-A38A-9144-9584-B57331C3F5CA}"/>
   </bookViews>
@@ -987,30 +987,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]huge (10GB)'!$A$25:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$F$3</c:f>
@@ -2217,30 +2193,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]huge (10GB)'!$A$25:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$F$3</c:f>
@@ -3447,30 +3399,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]huge (10GB)'!$A$25:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$F$3</c:f>
@@ -4677,30 +4605,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[1]huge (10GB)'!$A$25:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$F$3</c:f>
@@ -9783,13 +9687,13 @@
       <sheetName val="CPU comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="25">
           <cell r="A25">
@@ -9817,18 +9721,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10133,8 +10037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC904AA-5D20-5444-A9AD-FBD322003594}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
